--- a/downloaded_files/CMPS446_Tutorial-35891.xlsx
+++ b/downloaded_files/CMPS446_Tutorial-35891.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -139,15 +139,6 @@
   </x:si>
   <x:si>
     <x:t>Mohamed Ayman Elsayed Korany Eldeeb</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1220195</x:t>
-  </x:si>
-  <x:si>
-    <x:t>محمد طارق محمد عبدالخالق</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mohamed Tarek Mohamef Abdelkhalek</x:t>
   </x:si>
   <x:si>
     <x:t>1220021</x:t>
@@ -362,7 +353,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E25" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E24" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -662,7 +653,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T25"/>
+  <x:dimension ref="A1:T24"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1137,7 +1128,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45913.7364673958</x:v>
+        <x:v>45909.4147845255</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1169,7 +1160,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45909.4147845255</x:v>
+        <x:v>45913.744431331</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1201,7 +1192,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45913.744431331</x:v>
+        <x:v>45906.6647710648</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1233,7 +1224,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45906.6647710648</x:v>
+        <x:v>45913.7427966435</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1265,7 +1256,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45913.7427966435</x:v>
+        <x:v>45913.7992525463</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1297,7 +1288,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45913.7992525463</x:v>
+        <x:v>45913.7430081019</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1329,7 +1320,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45913.7430081019</x:v>
+        <x:v>45909.4148792477</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1361,7 +1352,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45909.4148792477</x:v>
+        <x:v>45912.3301577199</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1393,7 +1384,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45912.3301577199</x:v>
+        <x:v>45912.3305852662</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1425,7 +1416,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45912.3305852662</x:v>
+        <x:v>45912.330646412</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1457,7 +1448,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45912.330646412</x:v>
+        <x:v>45906.6651076736</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1474,38 +1465,6 @@
       <x:c r="R24" s="2" t="s"/>
       <x:c r="S24" s="2" t="s"/>
       <x:c r="T24" s="2" t="s"/>
-    </x:row>
-    <x:row r="25" spans="1:20">
-      <x:c r="A25" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B25" s="2" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="C25" s="2" t="s">
-        <x:v>75</x:v>
-      </x:c>
-      <x:c r="D25" s="2" t="s">
-        <x:v>76</x:v>
-      </x:c>
-      <x:c r="E25" s="3">
-        <x:v>45906.6651076736</x:v>
-      </x:c>
-      <x:c r="F25" s="2" t="s"/>
-      <x:c r="G25" s="2" t="s"/>
-      <x:c r="H25" s="2" t="s"/>
-      <x:c r="I25" s="2" t="s"/>
-      <x:c r="J25" s="2" t="s"/>
-      <x:c r="K25" s="2" t="s"/>
-      <x:c r="L25" s="2" t="s"/>
-      <x:c r="M25" s="2" t="s"/>
-      <x:c r="N25" s="2" t="s"/>
-      <x:c r="O25" s="2" t="s"/>
-      <x:c r="P25" s="2" t="s"/>
-      <x:c r="Q25" s="2" t="s"/>
-      <x:c r="R25" s="2" t="s"/>
-      <x:c r="S25" s="2" t="s"/>
-      <x:c r="T25" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS446_Tutorial-35891.xlsx
+++ b/downloaded_files/CMPS446_Tutorial-35891.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -130,6 +130,15 @@
   </x:si>
   <x:si>
     <x:t>kareem nagy marzok mohamed El kahwagy</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1210375</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ماجد امجد رسمي وديع</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Maged Amgad Rasmy Wadi</x:t>
   </x:si>
   <x:si>
     <x:t>1210388</x:t>
@@ -353,7 +362,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E24" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E25" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -653,7 +662,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T24"/>
+  <x:dimension ref="A1:T25"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1096,7 +1105,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45912.3300300579</x:v>
+        <x:v>45922.9121823727</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1128,7 +1137,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45909.4147845255</x:v>
+        <x:v>45912.3300300579</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1160,7 +1169,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45913.744431331</x:v>
+        <x:v>45909.4147845255</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1192,7 +1201,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45906.6647710648</x:v>
+        <x:v>45913.744431331</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1224,7 +1233,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45913.7427966435</x:v>
+        <x:v>45906.6647710648</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1256,7 +1265,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45913.7992525463</x:v>
+        <x:v>45913.7427966435</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1288,7 +1297,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45913.7430081019</x:v>
+        <x:v>45913.7992525463</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1320,7 +1329,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45909.4148792477</x:v>
+        <x:v>45913.7430081019</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1352,7 +1361,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45912.3301577199</x:v>
+        <x:v>45909.4148792477</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1384,7 +1393,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45912.3305852662</x:v>
+        <x:v>45912.3301577199</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1416,7 +1425,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45912.330646412</x:v>
+        <x:v>45912.3305852662</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1448,7 +1457,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45906.6651076736</x:v>
+        <x:v>45912.330646412</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1465,6 +1474,38 @@
       <x:c r="R24" s="2" t="s"/>
       <x:c r="S24" s="2" t="s"/>
       <x:c r="T24" s="2" t="s"/>
+    </x:row>
+    <x:row r="25" spans="1:20">
+      <x:c r="A25" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B25" s="2" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="C25" s="2" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="D25" s="2" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="E25" s="3">
+        <x:v>45906.6651076736</x:v>
+      </x:c>
+      <x:c r="F25" s="2" t="s"/>
+      <x:c r="G25" s="2" t="s"/>
+      <x:c r="H25" s="2" t="s"/>
+      <x:c r="I25" s="2" t="s"/>
+      <x:c r="J25" s="2" t="s"/>
+      <x:c r="K25" s="2" t="s"/>
+      <x:c r="L25" s="2" t="s"/>
+      <x:c r="M25" s="2" t="s"/>
+      <x:c r="N25" s="2" t="s"/>
+      <x:c r="O25" s="2" t="s"/>
+      <x:c r="P25" s="2" t="s"/>
+      <x:c r="Q25" s="2" t="s"/>
+      <x:c r="R25" s="2" t="s"/>
+      <x:c r="S25" s="2" t="s"/>
+      <x:c r="T25" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS446_Tutorial-35891.xlsx
+++ b/downloaded_files/CMPS446_Tutorial-35891.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -166,6 +166,15 @@
   </x:si>
   <x:si>
     <x:t>Mahmoud Khaled Mohamed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4220141</x:t>
+  </x:si>
+  <x:si>
+    <x:t>محمود على عباس حسن</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mohmoud Ali Abas Hassan</x:t>
   </x:si>
   <x:si>
     <x:t>1220023</x:t>
@@ -362,7 +371,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E25" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E26" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -662,7 +671,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T25"/>
+  <x:dimension ref="A1:T26"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1233,7 +1242,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45906.6647710648</x:v>
+        <x:v>45926.5716623032</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1265,7 +1274,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45913.7427966435</x:v>
+        <x:v>45906.6647710648</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1297,7 +1306,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45913.7992525463</x:v>
+        <x:v>45913.7427966435</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1329,7 +1338,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45913.7430081019</x:v>
+        <x:v>45913.7992525463</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1361,7 +1370,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45909.4148792477</x:v>
+        <x:v>45913.7430081019</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1393,7 +1402,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45912.3301577199</x:v>
+        <x:v>45909.4148792477</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1425,7 +1434,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45912.3305852662</x:v>
+        <x:v>45912.3301577199</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1457,7 +1466,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45912.330646412</x:v>
+        <x:v>45912.3305852662</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1489,7 +1498,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45906.6651076736</x:v>
+        <x:v>45912.330646412</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1506,6 +1515,38 @@
       <x:c r="R25" s="2" t="s"/>
       <x:c r="S25" s="2" t="s"/>
       <x:c r="T25" s="2" t="s"/>
+    </x:row>
+    <x:row r="26" spans="1:20">
+      <x:c r="A26" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B26" s="2" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="C26" s="2" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="D26" s="2" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="E26" s="3">
+        <x:v>45906.6651076736</x:v>
+      </x:c>
+      <x:c r="F26" s="2" t="s"/>
+      <x:c r="G26" s="2" t="s"/>
+      <x:c r="H26" s="2" t="s"/>
+      <x:c r="I26" s="2" t="s"/>
+      <x:c r="J26" s="2" t="s"/>
+      <x:c r="K26" s="2" t="s"/>
+      <x:c r="L26" s="2" t="s"/>
+      <x:c r="M26" s="2" t="s"/>
+      <x:c r="N26" s="2" t="s"/>
+      <x:c r="O26" s="2" t="s"/>
+      <x:c r="P26" s="2" t="s"/>
+      <x:c r="Q26" s="2" t="s"/>
+      <x:c r="R26" s="2" t="s"/>
+      <x:c r="S26" s="2" t="s"/>
+      <x:c r="T26" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS446_Tutorial-35891.xlsx
+++ b/downloaded_files/CMPS446_Tutorial-35891.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -33,15 +33,6 @@
     <x:t>Date</x:t>
   </x:si>
   <x:si>
-    <x:t>4230138</x:t>
-  </x:si>
-  <x:si>
-    <x:t>احمد سامح صلاح مصيلحى</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ahmed Sameh Salah</x:t>
-  </x:si>
-  <x:si>
     <x:t>1210044</x:t>
   </x:si>
   <x:si>
@@ -96,15 +87,6 @@
     <x:t>Rawan Mohamed Samawal Rezk</x:t>
   </x:si>
   <x:si>
-    <x:t>1220246</x:t>
-  </x:si>
-  <x:si>
-    <x:t>سيف الدين سامح عبدالرحمن صادق دكروري</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Seifeldin Sameh Abdelrahman Dakroury</x:t>
-  </x:si>
-  <x:si>
     <x:t>1220325</x:t>
   </x:si>
   <x:si>
@@ -123,6 +105,15 @@
     <x:t>Amr Ayman Farouck Mohamed</x:t>
   </x:si>
   <x:si>
+    <x:t>4220133</x:t>
+  </x:si>
+  <x:si>
+    <x:t>فاروق ضياء الدين فاروق السيد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Farouq Diaa Eldin Farouk ElSayed</x:t>
+  </x:si>
+  <x:si>
     <x:t>1210371</x:t>
   </x:si>
   <x:si>
@@ -141,13 +132,13 @@
     <x:t>Maged Amgad Rasmy Wadi</x:t>
   </x:si>
   <x:si>
-    <x:t>1210388</x:t>
-  </x:si>
-  <x:si>
-    <x:t>محمد أيمن السيد قرني الديب</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mohamed Ayman Elsayed Korany Eldeeb</x:t>
+    <x:t>4220140</x:t>
+  </x:si>
+  <x:si>
+    <x:t>محمد ماهر محمد رفعت</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mohamed Maher Mohamed</x:t>
   </x:si>
   <x:si>
     <x:t>1220021</x:t>
@@ -186,15 +177,6 @@
     <x:t>Mahmoud medhat mahmoud mohamed</x:t>
   </x:si>
   <x:si>
-    <x:t>1210297</x:t>
-  </x:si>
-  <x:si>
-    <x:t>محمود وليد محمود عبدالرحمن الشايب</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mahmoud Waleed Mahmoud El Shayep</x:t>
-  </x:si>
-  <x:si>
     <x:t>1210377</x:t>
   </x:si>
   <x:si>
@@ -238,15 +220,6 @@
   </x:si>
   <x:si>
     <x:t>Hana Ahmad Foad Elakabawy</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1220300</x:t>
-  </x:si>
-  <x:si>
-    <x:t>يوسف محمد العيسوي عبده النقيب</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Yousef Mohamed Elessawy Abdou Elnaqieb</x:t>
   </x:si>
   <x:si>
     <x:t>1210343</x:t>
@@ -371,7 +344,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E26" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E23" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -671,7 +644,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T26"/>
+  <x:dimension ref="A1:T23"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -762,7 +735,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="E2" s="3">
-        <x:v>45909.414925544</x:v>
+        <x:v>45912.3300846412</x:v>
       </x:c>
       <x:c r="F2" s="2" t="s"/>
       <x:c r="G2" s="2" t="s"/>
@@ -794,7 +767,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="E3" s="3">
-        <x:v>45912.3300846412</x:v>
+        <x:v>45909.4149998032</x:v>
       </x:c>
       <x:c r="F3" s="2" t="s"/>
       <x:c r="G3" s="2" t="s"/>
@@ -826,7 +799,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45909.4149998032</x:v>
+        <x:v>45912.3302561343</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -858,7 +831,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45912.3302561343</x:v>
+        <x:v>45913.7424805208</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -890,7 +863,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45913.7424805208</x:v>
+        <x:v>45913.7429113426</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -922,7 +895,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45913.7429113426</x:v>
+        <x:v>45913.7426574884</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -954,7 +927,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45913.7426574884</x:v>
+        <x:v>45912.3307059375</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -986,7 +959,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45913.6392454051</x:v>
+        <x:v>45909.4148355324</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1018,7 +991,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45912.3307059375</x:v>
+        <x:v>45927.4714578704</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1050,7 +1023,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45909.4148355324</x:v>
+        <x:v>45913.7422790162</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1082,7 +1055,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45913.7422790162</x:v>
+        <x:v>45922.9121823727</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1114,7 +1087,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45922.9121823727</x:v>
+        <x:v>45927.4168738426</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1146,7 +1119,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45912.3300300579</x:v>
+        <x:v>45909.4147845255</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1178,7 +1151,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45909.4147845255</x:v>
+        <x:v>45913.744431331</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1210,7 +1183,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45913.744431331</x:v>
+        <x:v>45926.5716623032</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1242,7 +1215,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45926.5716623032</x:v>
+        <x:v>45906.6647710648</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1274,7 +1247,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45906.6647710648</x:v>
+        <x:v>45913.7992525463</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1306,7 +1279,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45913.7427966435</x:v>
+        <x:v>45913.7430081019</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1338,7 +1311,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45913.7992525463</x:v>
+        <x:v>45927.6565604977</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1370,7 +1343,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45913.7430081019</x:v>
+        <x:v>45912.3301577199</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1402,7 +1375,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45909.4148792477</x:v>
+        <x:v>45912.3305852662</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1434,7 +1407,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45912.3301577199</x:v>
+        <x:v>45906.6651076736</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1451,102 +1424,6 @@
       <x:c r="R23" s="2" t="s"/>
       <x:c r="S23" s="2" t="s"/>
       <x:c r="T23" s="2" t="s"/>
-    </x:row>
-    <x:row r="24" spans="1:20">
-      <x:c r="A24" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B24" s="2" t="s">
-        <x:v>71</x:v>
-      </x:c>
-      <x:c r="C24" s="2" t="s">
-        <x:v>72</x:v>
-      </x:c>
-      <x:c r="D24" s="2" t="s">
-        <x:v>73</x:v>
-      </x:c>
-      <x:c r="E24" s="3">
-        <x:v>45912.3305852662</x:v>
-      </x:c>
-      <x:c r="F24" s="2" t="s"/>
-      <x:c r="G24" s="2" t="s"/>
-      <x:c r="H24" s="2" t="s"/>
-      <x:c r="I24" s="2" t="s"/>
-      <x:c r="J24" s="2" t="s"/>
-      <x:c r="K24" s="2" t="s"/>
-      <x:c r="L24" s="2" t="s"/>
-      <x:c r="M24" s="2" t="s"/>
-      <x:c r="N24" s="2" t="s"/>
-      <x:c r="O24" s="2" t="s"/>
-      <x:c r="P24" s="2" t="s"/>
-      <x:c r="Q24" s="2" t="s"/>
-      <x:c r="R24" s="2" t="s"/>
-      <x:c r="S24" s="2" t="s"/>
-      <x:c r="T24" s="2" t="s"/>
-    </x:row>
-    <x:row r="25" spans="1:20">
-      <x:c r="A25" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B25" s="2" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="C25" s="2" t="s">
-        <x:v>75</x:v>
-      </x:c>
-      <x:c r="D25" s="2" t="s">
-        <x:v>76</x:v>
-      </x:c>
-      <x:c r="E25" s="3">
-        <x:v>45912.330646412</x:v>
-      </x:c>
-      <x:c r="F25" s="2" t="s"/>
-      <x:c r="G25" s="2" t="s"/>
-      <x:c r="H25" s="2" t="s"/>
-      <x:c r="I25" s="2" t="s"/>
-      <x:c r="J25" s="2" t="s"/>
-      <x:c r="K25" s="2" t="s"/>
-      <x:c r="L25" s="2" t="s"/>
-      <x:c r="M25" s="2" t="s"/>
-      <x:c r="N25" s="2" t="s"/>
-      <x:c r="O25" s="2" t="s"/>
-      <x:c r="P25" s="2" t="s"/>
-      <x:c r="Q25" s="2" t="s"/>
-      <x:c r="R25" s="2" t="s"/>
-      <x:c r="S25" s="2" t="s"/>
-      <x:c r="T25" s="2" t="s"/>
-    </x:row>
-    <x:row r="26" spans="1:20">
-      <x:c r="A26" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B26" s="2" t="s">
-        <x:v>77</x:v>
-      </x:c>
-      <x:c r="C26" s="2" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="D26" s="2" t="s">
-        <x:v>79</x:v>
-      </x:c>
-      <x:c r="E26" s="3">
-        <x:v>45906.6651076736</x:v>
-      </x:c>
-      <x:c r="F26" s="2" t="s"/>
-      <x:c r="G26" s="2" t="s"/>
-      <x:c r="H26" s="2" t="s"/>
-      <x:c r="I26" s="2" t="s"/>
-      <x:c r="J26" s="2" t="s"/>
-      <x:c r="K26" s="2" t="s"/>
-      <x:c r="L26" s="2" t="s"/>
-      <x:c r="M26" s="2" t="s"/>
-      <x:c r="N26" s="2" t="s"/>
-      <x:c r="O26" s="2" t="s"/>
-      <x:c r="P26" s="2" t="s"/>
-      <x:c r="Q26" s="2" t="s"/>
-      <x:c r="R26" s="2" t="s"/>
-      <x:c r="S26" s="2" t="s"/>
-      <x:c r="T26" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS446_Tutorial-35891.xlsx
+++ b/downloaded_files/CMPS446_Tutorial-35891.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -114,6 +114,15 @@
     <x:t>Farouq Diaa Eldin Farouk ElSayed</x:t>
   </x:si>
   <x:si>
+    <x:t>1210070</x:t>
+  </x:si>
+  <x:si>
+    <x:t>كريم مجدى منير محمود العكام</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Karim Magdy Mounir</x:t>
+  </x:si>
+  <x:si>
     <x:t>1210371</x:t>
   </x:si>
   <x:si>
@@ -132,6 +141,15 @@
     <x:t>Maged Amgad Rasmy Wadi</x:t>
   </x:si>
   <x:si>
+    <x:t>1220018</x:t>
+  </x:si>
+  <x:si>
+    <x:t>مازن محمد سيد خليفه احمد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mazen Mohamed Sayed Khalifa</x:t>
+  </x:si>
+  <x:si>
     <x:t>4220140</x:t>
   </x:si>
   <x:si>
@@ -166,15 +184,6 @@
   </x:si>
   <x:si>
     <x:t>Mohmoud Ali Abas Hassan</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1220023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>محمود مدحت محمود محمد متولي</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mahmoud medhat mahmoud mohamed</x:t>
   </x:si>
   <x:si>
     <x:t>1210377</x:t>
@@ -344,7 +353,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E23" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E24" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -644,7 +653,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T23"/>
+  <x:dimension ref="A1:T24"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1023,7 +1032,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45913.7422790162</x:v>
+        <x:v>45927.8715160069</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1055,7 +1064,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45922.9121823727</x:v>
+        <x:v>45913.7422790162</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1087,7 +1096,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45927.4168738426</x:v>
+        <x:v>45922.9121823727</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1119,7 +1128,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45909.4147845255</x:v>
+        <x:v>45927.6882940162</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1151,7 +1160,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45913.744431331</x:v>
+        <x:v>45927.4168738426</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1183,7 +1192,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45926.5716623032</x:v>
+        <x:v>45909.4147845255</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1215,7 +1224,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45906.6647710648</x:v>
+        <x:v>45913.744431331</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1247,7 +1256,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45913.7992525463</x:v>
+        <x:v>45926.5716623032</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1279,7 +1288,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45913.7430081019</x:v>
+        <x:v>45913.7992525463</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1311,7 +1320,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45927.6565604977</x:v>
+        <x:v>45913.7430081019</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1343,7 +1352,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45912.3301577199</x:v>
+        <x:v>45927.9337043171</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1375,7 +1384,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45912.3305852662</x:v>
+        <x:v>45912.3301577199</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1407,7 +1416,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45906.6651076736</x:v>
+        <x:v>45912.3305852662</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1424,6 +1433,38 @@
       <x:c r="R23" s="2" t="s"/>
       <x:c r="S23" s="2" t="s"/>
       <x:c r="T23" s="2" t="s"/>
+    </x:row>
+    <x:row r="24" spans="1:20">
+      <x:c r="A24" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B24" s="2" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="C24" s="2" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="D24" s="2" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="E24" s="3">
+        <x:v>45906.6651076736</x:v>
+      </x:c>
+      <x:c r="F24" s="2" t="s"/>
+      <x:c r="G24" s="2" t="s"/>
+      <x:c r="H24" s="2" t="s"/>
+      <x:c r="I24" s="2" t="s"/>
+      <x:c r="J24" s="2" t="s"/>
+      <x:c r="K24" s="2" t="s"/>
+      <x:c r="L24" s="2" t="s"/>
+      <x:c r="M24" s="2" t="s"/>
+      <x:c r="N24" s="2" t="s"/>
+      <x:c r="O24" s="2" t="s"/>
+      <x:c r="P24" s="2" t="s"/>
+      <x:c r="Q24" s="2" t="s"/>
+      <x:c r="R24" s="2" t="s"/>
+      <x:c r="S24" s="2" t="s"/>
+      <x:c r="T24" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS446_Tutorial-35891.xlsx
+++ b/downloaded_files/CMPS446_Tutorial-35891.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -139,15 +139,6 @@
   </x:si>
   <x:si>
     <x:t>Maged Amgad Rasmy Wadi</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1220018</x:t>
-  </x:si>
-  <x:si>
-    <x:t>مازن محمد سيد خليفه احمد</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mazen Mohamed Sayed Khalifa</x:t>
   </x:si>
   <x:si>
     <x:t>4220140</x:t>
@@ -353,7 +344,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E24" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E23" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -653,7 +644,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T24"/>
+  <x:dimension ref="A1:T23"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1128,7 +1119,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45927.6882940162</x:v>
+        <x:v>45927.4168738426</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1160,7 +1151,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45927.4168738426</x:v>
+        <x:v>45909.4147845255</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1192,7 +1183,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45909.4147845255</x:v>
+        <x:v>45913.744431331</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1224,7 +1215,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45913.744431331</x:v>
+        <x:v>45926.5716623032</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1256,7 +1247,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45926.5716623032</x:v>
+        <x:v>45913.7992525463</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1288,7 +1279,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45913.7992525463</x:v>
+        <x:v>45913.7430081019</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1320,7 +1311,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45913.7430081019</x:v>
+        <x:v>45927.9337043171</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1352,7 +1343,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45927.9337043171</x:v>
+        <x:v>45912.3301577199</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1384,7 +1375,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45912.3301577199</x:v>
+        <x:v>45912.3305852662</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1416,7 +1407,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45912.3305852662</x:v>
+        <x:v>45906.6651076736</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1433,38 +1424,6 @@
       <x:c r="R23" s="2" t="s"/>
       <x:c r="S23" s="2" t="s"/>
       <x:c r="T23" s="2" t="s"/>
-    </x:row>
-    <x:row r="24" spans="1:20">
-      <x:c r="A24" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B24" s="2" t="s">
-        <x:v>71</x:v>
-      </x:c>
-      <x:c r="C24" s="2" t="s">
-        <x:v>72</x:v>
-      </x:c>
-      <x:c r="D24" s="2" t="s">
-        <x:v>73</x:v>
-      </x:c>
-      <x:c r="E24" s="3">
-        <x:v>45906.6651076736</x:v>
-      </x:c>
-      <x:c r="F24" s="2" t="s"/>
-      <x:c r="G24" s="2" t="s"/>
-      <x:c r="H24" s="2" t="s"/>
-      <x:c r="I24" s="2" t="s"/>
-      <x:c r="J24" s="2" t="s"/>
-      <x:c r="K24" s="2" t="s"/>
-      <x:c r="L24" s="2" t="s"/>
-      <x:c r="M24" s="2" t="s"/>
-      <x:c r="N24" s="2" t="s"/>
-      <x:c r="O24" s="2" t="s"/>
-      <x:c r="P24" s="2" t="s"/>
-      <x:c r="Q24" s="2" t="s"/>
-      <x:c r="R24" s="2" t="s"/>
-      <x:c r="S24" s="2" t="s"/>
-      <x:c r="T24" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS446_Tutorial-35891.xlsx
+++ b/downloaded_files/CMPS446_Tutorial-35891.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -112,6 +112,15 @@
   </x:si>
   <x:si>
     <x:t>Farouq Diaa Eldin Farouk ElSayed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1210409</x:t>
+  </x:si>
+  <x:si>
+    <x:t>فاطمه عبدالعزيز محمد عبده</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Fatma Abdelaziz Mohamed Abdo</x:t>
   </x:si>
   <x:si>
     <x:t>1210070</x:t>
@@ -344,7 +353,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E23" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E24" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -644,7 +653,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T23"/>
+  <x:dimension ref="A1:T24"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1023,7 +1032,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45927.8715160069</x:v>
+        <x:v>45929.5794823264</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1055,7 +1064,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45913.7422790162</x:v>
+        <x:v>45927.8715160069</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1087,7 +1096,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45922.9121823727</x:v>
+        <x:v>45913.7422790162</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1119,7 +1128,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45927.4168738426</x:v>
+        <x:v>45922.9121823727</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1151,7 +1160,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45909.4147845255</x:v>
+        <x:v>45927.4168738426</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1183,7 +1192,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45913.744431331</x:v>
+        <x:v>45909.4147845255</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1215,7 +1224,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45926.5716623032</x:v>
+        <x:v>45913.744431331</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1247,7 +1256,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45913.7992525463</x:v>
+        <x:v>45926.5716623032</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1279,7 +1288,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45913.7430081019</x:v>
+        <x:v>45913.7992525463</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1311,7 +1320,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45927.9337043171</x:v>
+        <x:v>45913.7430081019</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1343,7 +1352,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45912.3301577199</x:v>
+        <x:v>45927.9337043171</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1375,7 +1384,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45912.3305852662</x:v>
+        <x:v>45912.3301577199</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1407,7 +1416,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45906.6651076736</x:v>
+        <x:v>45912.3305852662</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1424,6 +1433,38 @@
       <x:c r="R23" s="2" t="s"/>
       <x:c r="S23" s="2" t="s"/>
       <x:c r="T23" s="2" t="s"/>
+    </x:row>
+    <x:row r="24" spans="1:20">
+      <x:c r="A24" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B24" s="2" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="C24" s="2" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="D24" s="2" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="E24" s="3">
+        <x:v>45906.6651076736</x:v>
+      </x:c>
+      <x:c r="F24" s="2" t="s"/>
+      <x:c r="G24" s="2" t="s"/>
+      <x:c r="H24" s="2" t="s"/>
+      <x:c r="I24" s="2" t="s"/>
+      <x:c r="J24" s="2" t="s"/>
+      <x:c r="K24" s="2" t="s"/>
+      <x:c r="L24" s="2" t="s"/>
+      <x:c r="M24" s="2" t="s"/>
+      <x:c r="N24" s="2" t="s"/>
+      <x:c r="O24" s="2" t="s"/>
+      <x:c r="P24" s="2" t="s"/>
+      <x:c r="Q24" s="2" t="s"/>
+      <x:c r="R24" s="2" t="s"/>
+      <x:c r="S24" s="2" t="s"/>
+      <x:c r="T24" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS446_Tutorial-35891.xlsx
+++ b/downloaded_files/CMPS446_Tutorial-35891.xlsx
@@ -210,7 +210,7 @@
     <x:t>مهند محمد فتحى محمد</x:t>
   </x:si>
   <x:si>
-    <x:t>Mohaned Mohammed fathy</x:t>
+    <x:t xml:space="preserve"> Mohaned Mohammed fathy Mohammed</x:t>
   </x:si>
   <x:si>
     <x:t>1210381</x:t>
